--- a/biology/Zoologie/Baza_huppé/Baza_huppé.xlsx
+++ b/biology/Zoologie/Baza_huppé/Baza_huppé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Baza_hupp%C3%A9</t>
+          <t>Baza_huppé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aviceda subcristata
 Le Baza huppé (Aviceda subcristata) est une espèce de rapace de la famille des Accipitridae
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Baza_hupp%C3%A9</t>
+          <t>Baza_huppé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un rapace mince, de taille moyenne avec une crête très distinctive. Son dos est surtout brun foncé avec une tête grise et des yeux jaunes. Il présente des bandes voyantes blanches et brun foncé sur la poitrine, le dessous de la queue et des ailes. Les femelles sont légèrement plus grandes que les mâles.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Baza_hupp%C3%A9</t>
+          <t>Baza_huppé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans les zones côtières et subcôtieres du nord et l'est de l'Australie, du Wallacea, de la Nouvelle-Guinée et des îles adjacentes.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Baza_hupp%C3%A9</t>
+          <t>Baza_huppé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit de phasmes (en particulier lors de la période de reproduction) ainsi que d'autres gros insectes, de grenouilles arboricoles, de lézards, d'oiseaux et de petits fruits.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Baza_hupp%C3%A9</t>
+          <t>Baza_huppé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il niche en haut des arbres en forêt et la taille de la couvée est de 2 à 4 œufs.
 </t>
